--- a/Skill Mapping Application_Activity Tracker.xlsx
+++ b/Skill Mapping Application_Activity Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niravigneshgmail.com/Documents/Study Files/All_Workspace/Java_Workspace/Skill mapping app/SMAapplication/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC547B2-391D-084E-9C36-28991252982E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48C3D6C-E916-304E-AAC6-77745F7D8AB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2260" windowWidth="28040" windowHeight="17440" xr2:uid="{E0C68C54-1C61-5F4F-AC31-93517296E6D8}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20340" xr2:uid="{E0C68C54-1C61-5F4F-AC31-93517296E6D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>Sl.No</t>
   </si>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>Incomplete</t>
+  </si>
+  <si>
+    <t>Database Creation</t>
+  </si>
+  <si>
+    <t>Created Database in MySQL and created 2 tables</t>
+  </si>
+  <si>
+    <t>11:30Am</t>
+  </si>
+  <si>
+    <t>Created tables for the rest of the database</t>
   </si>
 </sst>
 </file>
@@ -469,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF9F231-9E1A-584C-8F6B-72A8343DAFEF}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -599,7 +611,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -609,53 +621,63 @@
       <c r="C6" s="2">
         <v>6.25E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>44154</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.3125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
         <v>44159</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C7" s="5">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
+    <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
         <v>44160</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Skill Mapping Application_Activity Tracker.xlsx
+++ b/Skill Mapping Application_Activity Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niravigneshgmail.com/Documents/Study Files/All_Workspace/Java_Workspace/Skill mapping app/SMAapplication/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48C3D6C-E916-304E-AAC6-77745F7D8AB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2641D7-4F72-F441-97EA-6523EE0D7BD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20340" xr2:uid="{E0C68C54-1C61-5F4F-AC31-93517296E6D8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Sl.No</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Created tables for the rest of the database</t>
+  </si>
+  <si>
+    <t>yet to complete the Employee Id from table 4 and 5</t>
   </si>
 </sst>
 </file>
@@ -484,7 +487,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -660,7 +663,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -676,8 +679,8 @@
       <c r="E8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I8" t="s">
-        <v>12</v>
+      <c r="I8" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Skill Mapping Application_Activity Tracker.xlsx
+++ b/Skill Mapping Application_Activity Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niravigneshgmail.com/Documents/Study Files/All_Workspace/Java_Workspace/Skill mapping app/SMAapplication/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2641D7-4F72-F441-97EA-6523EE0D7BD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A532F99-B763-9143-86CE-E756349FEAA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20340" xr2:uid="{E0C68C54-1C61-5F4F-AC31-93517296E6D8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{E0C68C54-1C61-5F4F-AC31-93517296E6D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>Sl.No</t>
   </si>
@@ -111,13 +111,85 @@
     <t>Created Database in MySQL and created 2 tables</t>
   </si>
   <si>
-    <t>11:30Am</t>
-  </si>
-  <si>
     <t>Created tables for the rest of the database</t>
   </si>
   <si>
     <t>yet to complete the Employee Id from table 4 and 5</t>
+  </si>
+  <si>
+    <t>11:30AM</t>
+  </si>
+  <si>
+    <t>Created all the tables in the Mysql database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Had issues with the foreign key </t>
+  </si>
+  <si>
+    <t>I had issues with finding out the connctivity between two tables</t>
+  </si>
+  <si>
+    <t>I found the output now and am good to go</t>
+  </si>
+  <si>
+    <t>27/11/2020 - 28/11/2020</t>
+  </si>
+  <si>
+    <t>6:30PM - 11AM</t>
+  </si>
+  <si>
+    <t>Connection of database to the program</t>
+  </si>
+  <si>
+    <t>Connected the PCSDB with my eclipse, Builded up path for mysql jar file, created the JDBC connection.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Had issues with connecting the database in my mac, but I solved the issue. </t>
+  </si>
+  <si>
+    <t>connection was not established</t>
+  </si>
+  <si>
+    <t>I changed my username to root and it worked.</t>
+  </si>
+  <si>
+    <t>1PM - 3PM</t>
+  </si>
+  <si>
+    <t>4PM-5:30PM</t>
+  </si>
+  <si>
+    <t>Had minor issues in creating the program</t>
+  </si>
+  <si>
+    <t>program can't be executed</t>
+  </si>
+  <si>
+    <t>Built the Employee java class in the model package and completed errors</t>
+  </si>
+  <si>
+    <t>Fixed the errors in the program</t>
+  </si>
+  <si>
+    <t>6:30PM - 12PM</t>
+  </si>
+  <si>
+    <t>Built the class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created class </t>
+  </si>
+  <si>
+    <t>Built the class for employee dao, employee class, and interface class</t>
+  </si>
+  <si>
+    <t>11PM-1AM</t>
+  </si>
+  <si>
+    <t>Entered the first data into the table</t>
+  </si>
+  <si>
+    <t>Entered the first Employee detail into the table and connected with SQL workbench</t>
   </si>
 </sst>
 </file>
@@ -161,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -170,6 +242,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF9F231-9E1A-584C-8F6B-72A8343DAFEF}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -495,11 +576,10 @@
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="4" max="4" width="35.1640625" customWidth="1"/>
     <col min="5" max="5" width="37.1640625" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" customWidth="1"/>
-    <col min="9" max="9" width="28" customWidth="1"/>
-    <col min="10" max="10" width="23.5" customWidth="1"/>
+    <col min="6" max="6" width="32.1640625" customWidth="1"/>
+    <col min="7" max="7" width="37.1640625" customWidth="1"/>
+    <col min="8" max="9" width="30" customWidth="1"/>
+    <col min="10" max="10" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -670,17 +750,155 @@
       <c r="B8" s="1">
         <v>44160</v>
       </c>
-      <c r="C8" t="s">
-        <v>28</v>
+      <c r="C8" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>30</v>
+    </row>
+    <row r="9" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>44164</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>44164</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>44165</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>44137</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>44138</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Skill Mapping Application_Activity Tracker.xlsx
+++ b/Skill Mapping Application_Activity Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niravigneshgmail.com/Documents/Study Files/All_Workspace/Java_Workspace/Skill mapping app/SMAapplication/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A532F99-B763-9143-86CE-E756349FEAA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B2AF58-B539-044D-B668-EA8F7B2E9975}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{E0C68C54-1C61-5F4F-AC31-93517296E6D8}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20340" xr2:uid="{E0C68C54-1C61-5F4F-AC31-93517296E6D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="88">
   <si>
     <t>Sl.No</t>
   </si>
@@ -190,6 +190,105 @@
   </si>
   <si>
     <t>Entered the first Employee detail into the table and connected with SQL workbench</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done with the entry class code and cleared </t>
+  </si>
+  <si>
+    <t>Created the entry class and had so much errors coming out often. Now I have cleared it.</t>
+  </si>
+  <si>
+    <t>Had errors with the code</t>
+  </si>
+  <si>
+    <t>Program can't be executed</t>
+  </si>
+  <si>
+    <t>Fixed the code and made it error free so that the entry class is executed</t>
+  </si>
+  <si>
+    <t>03/11/20 - 4/11/20</t>
+  </si>
+  <si>
+    <t>6:30PM - 11PM</t>
+  </si>
+  <si>
+    <t>Created files controller</t>
+  </si>
+  <si>
+    <t>Had errors and yet to find out</t>
+  </si>
+  <si>
+    <t>Not yet fixed</t>
+  </si>
+  <si>
+    <t>incomplete</t>
+  </si>
+  <si>
+    <t>8:30PM-3Am</t>
+  </si>
+  <si>
+    <t>Finished coding for JOBController</t>
+  </si>
+  <si>
+    <t>Finished coding for Skill controller and  employeeController</t>
+  </si>
+  <si>
+    <t>Had erors in the program and yet to find out</t>
+  </si>
+  <si>
+    <t>Developed the code for Dao package</t>
+  </si>
+  <si>
+    <t>08/12/2020  -09/12/20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finished creating the dao packages </t>
+  </si>
+  <si>
+    <t>had minor errors and it got solved</t>
+  </si>
+  <si>
+    <t>Mistakes in the program and finished</t>
+  </si>
+  <si>
+    <t>7:30AM-11PM</t>
+  </si>
+  <si>
+    <t>11AM-3AM</t>
+  </si>
+  <si>
+    <t>10/12/2020 -11/12/20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coded for the other packages </t>
+  </si>
+  <si>
+    <t>cleared the issues in the controller package and finished with the total controller package</t>
+  </si>
+  <si>
+    <t>Had some error with the written code and cleared</t>
+  </si>
+  <si>
+    <t>11/12/20 - 12/12/20</t>
+  </si>
+  <si>
+    <t>7:30AM-5:20AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">finished with the view package </t>
+  </si>
+  <si>
+    <t>Created the view packages with the needed frames but still can't access the registerframe from the login frame</t>
+  </si>
+  <si>
+    <t>Cant' acces the register frame from the login fram</t>
+  </si>
+  <si>
+    <t>Others' work fine but can't able to access the register frame. It can be accesed seperately but not from the login frame</t>
+  </si>
+  <si>
+    <t>Completed except the conenctivity of register form</t>
   </si>
 </sst>
 </file>
@@ -565,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF9F231-9E1A-584C-8F6B-72A8343DAFEF}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -890,15 +989,166 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>44138</v>
+      <c r="B14" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>44141</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8">
+        <v>44174</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
